--- a/Первинні_статистичні_данні.xlsx
+++ b/Первинні_статистичні_данні.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>сезон</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>5-18лет      301</t>
+  </si>
+  <si>
+    <t>34653t</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>yer</t>
+  </si>
+  <si>
+    <t>ter</t>
+  </si>
+  <si>
+    <t>\rter</t>
+  </si>
+  <si>
+    <t>erywer5</t>
   </si>
 </sst>
 </file>
@@ -508,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F18"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +708,7 @@
         <v>1.1787120000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -698,14 +716,70 @@
         <f>C5*C9*C13</f>
         <v>0.95020799999999994</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3">
         <f>C6*C10*C14</f>
         <v>1.1399999999999999</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
